--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3579.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3579.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9867480150285588</v>
+        <v>4.112942218780518</v>
       </c>
       <c r="B1">
-        <v>1.420910248165085</v>
+        <v>4.194282054901123</v>
       </c>
       <c r="C1">
-        <v>2.732867984363512</v>
+        <v>2.106475591659546</v>
       </c>
       <c r="D1">
-        <v>5.113337018594468</v>
+        <v>1.625145673751831</v>
       </c>
       <c r="E1">
-        <v>1.607347989655669</v>
+        <v>1.460566997528076</v>
       </c>
     </row>
   </sheetData>
